--- a/medicine/Enfance/La_Rencontre_(roman_d'Allan_W._Eckert)/La_Rencontre_(roman_d'Allan_W._Eckert).xlsx
+++ b/medicine/Enfance/La_Rencontre_(roman_d'Allan_W._Eckert)/La_Rencontre_(roman_d'Allan_W._Eckert).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Rencontre_(roman_d%27Allan_W._Eckert)</t>
+          <t>La_Rencontre_(roman_d'Allan_W._Eckert)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Rencontre (titre original : Incident at Hawk's Hill) est la réédition de La Colline du faucon, traduction d'un roman, animalier, pour enfants, réputé tiré d'une histoire vraie, écrit par Allan W. Eckert (1931-2011), et paru en 1971[1].
+La Rencontre (titre original : Incident at Hawk's Hill) est la réédition de La Colline du faucon, traduction d'un roman, animalier, pour enfants, réputé tiré d'une histoire vraie, écrit par Allan W. Eckert (1931-2011), et paru en 1971.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Rencontre_(roman_d%27Allan_W._Eckert)</t>
+          <t>La_Rencontre_(roman_d'Allan_W._Eckert)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par un jour orageux de 1870, Ben MacDonald, un petit garçon un peu sauvage, se perd dans la prairie américaine où ses parents ont installé leur ferme. Surpris par la tempête, Ben se glisse dans un terrier où vit une Mère Blaireau qui le nourrit. De la rencontre de ces deux êtres solitaires naît une extraordinaire aventure.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Rencontre_(roman_d%27Allan_W._Eckert)</t>
+          <t>La_Rencontre_(roman_d'Allan_W._Eckert)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un incident de ce genre aurait été rapporté en 1873, selon une publication de la Société historique du Manitoba en 1960. L'auteur a beaucoup apporté à l'histoire.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Rencontre_(roman_d%27Allan_W._Eckert)</t>
+          <t>La_Rencontre_(roman_d'Allan_W._Eckert)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les personnages principaux : 
 Benjamin MacDonald : Le héros de l'histoire. Il se retrouve seul en compagnie de Dame Blaireau.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Rencontre_(roman_d%27Allan_W._Eckert)</t>
+          <t>La_Rencontre_(roman_d'Allan_W._Eckert)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,9 +632,11 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'auteur est connu pour ses nombreux récits mettant en scène la vie sauvage, et certains sont nominés pour le Prix Pulitzer. Ce roman a eu un bon succès en littérature jeunesse. Il semble apprécié par les enseignants français[2]. La lecture en est recommandée pour le cycle 3 dans le système éducatif public français, (encore) en 2018[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auteur est connu pour ses nombreux récits mettant en scène la vie sauvage, et certains sont nominés pour le Prix Pulitzer. Ce roman a eu un bon succès en littérature jeunesse. Il semble apprécié par les enseignants français. La lecture en est recommandée pour le cycle 3 dans le système éducatif public français, (encore) en 2018.
 Parmi les récompenses :
 Finaliste pour la Médaille Newbery 1972 ;
 ALA Notable lists (en) en livre pour les enfants ;
